--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Fas</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H2">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I2">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J2">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.2146305082515</v>
+        <v>12.35175266666666</v>
       </c>
       <c r="N2">
-        <v>12.2146305082515</v>
+        <v>37.05525799999999</v>
       </c>
       <c r="O2">
-        <v>0.3694699923856851</v>
+        <v>0.3597540268505798</v>
       </c>
       <c r="P2">
-        <v>0.3694699923856851</v>
+        <v>0.3724451376201082</v>
       </c>
       <c r="Q2">
-        <v>37.39323859107725</v>
+        <v>9.099268568225554</v>
       </c>
       <c r="R2">
-        <v>37.39323859107725</v>
+        <v>81.89341711402999</v>
       </c>
       <c r="S2">
-        <v>0.1670515105551329</v>
+        <v>0.03264517824745797</v>
       </c>
       <c r="T2">
-        <v>0.1670515105551329</v>
+        <v>0.03525462281729171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H3">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I3">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J3">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.5024997985056</v>
+        <v>8.811908000000001</v>
       </c>
       <c r="N3">
-        <v>8.5024997985056</v>
+        <v>26.435724</v>
       </c>
       <c r="O3">
-        <v>0.2571849008196353</v>
+        <v>0.2566534056168363</v>
       </c>
       <c r="P3">
-        <v>0.2571849008196353</v>
+        <v>0.2657074162934502</v>
       </c>
       <c r="Q3">
-        <v>26.02911347758959</v>
+        <v>6.491541698926667</v>
       </c>
       <c r="R3">
-        <v>26.02911347758959</v>
+        <v>58.42387529034</v>
       </c>
       <c r="S3">
-        <v>0.1162831273427029</v>
+        <v>0.02328951324750195</v>
       </c>
       <c r="T3">
-        <v>0.1162831273427029</v>
+        <v>0.02515112642103386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H4">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I4">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J4">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.40503531664433</v>
+        <v>4.158013666666666</v>
       </c>
       <c r="N4">
-        <v>3.40503531664433</v>
+        <v>12.474041</v>
       </c>
       <c r="O4">
-        <v>0.1029960236344192</v>
+        <v>0.1211052553148931</v>
       </c>
       <c r="P4">
-        <v>0.1029960236344192</v>
+        <v>0.1253775082857033</v>
       </c>
       <c r="Q4">
-        <v>10.42399914760517</v>
+        <v>3.063118577937222</v>
       </c>
       <c r="R4">
-        <v>10.42399914760517</v>
+        <v>27.568067201435</v>
       </c>
       <c r="S4">
-        <v>0.046568440425173</v>
+        <v>0.0109894604407045</v>
       </c>
       <c r="T4">
-        <v>0.046568440425173</v>
+        <v>0.01186788688564609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H5">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I5">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J5">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.43700190049592</v>
+        <v>5.502415666666667</v>
       </c>
       <c r="N5">
-        <v>5.43700190049592</v>
+        <v>16.507247</v>
       </c>
       <c r="O5">
-        <v>0.164459256415505</v>
+        <v>0.1602619682331494</v>
       </c>
       <c r="P5">
-        <v>0.164459256415505</v>
+        <v>0.1659155599630185</v>
       </c>
       <c r="Q5">
-        <v>16.64455663624387</v>
+        <v>4.053510402627222</v>
       </c>
       <c r="R5">
-        <v>16.64455663624387</v>
+        <v>36.481593623645</v>
       </c>
       <c r="S5">
-        <v>0.07435831806417754</v>
+        <v>0.01454266006432382</v>
       </c>
       <c r="T5">
-        <v>0.07435831806417754</v>
+        <v>0.01570510632355792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H6">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I6">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J6">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.50070407590716</v>
+        <v>3.509793</v>
       </c>
       <c r="N6">
-        <v>3.50070407590716</v>
+        <v>7.019586</v>
       </c>
       <c r="O6">
-        <v>0.1058898267447554</v>
+        <v>0.1022253439845415</v>
       </c>
       <c r="P6">
-        <v>0.1058898267447554</v>
+        <v>0.0705543778377197</v>
       </c>
       <c r="Q6">
-        <v>10.71687454309181</v>
+        <v>2.585588457585</v>
       </c>
       <c r="R6">
-        <v>10.71687454309181</v>
+        <v>15.51353074551</v>
       </c>
       <c r="S6">
-        <v>0.04787683945836478</v>
+        <v>0.009276239671304969</v>
       </c>
       <c r="T6">
-        <v>0.04787683945836478</v>
+        <v>0.006678481546762985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H7">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J7">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.2146305082515</v>
+        <v>12.35175266666666</v>
       </c>
       <c r="N7">
-        <v>12.2146305082515</v>
+        <v>37.05525799999999</v>
       </c>
       <c r="O7">
-        <v>0.3694699923856851</v>
+        <v>0.3597540268505798</v>
       </c>
       <c r="P7">
-        <v>0.3694699923856851</v>
+        <v>0.3724451376201082</v>
       </c>
       <c r="Q7">
-        <v>36.49294039486948</v>
+        <v>1.852845245017777</v>
       </c>
       <c r="R7">
-        <v>36.49294039486948</v>
+        <v>16.67560720516</v>
       </c>
       <c r="S7">
-        <v>0.1630294953648665</v>
+        <v>0.006647398396369755</v>
       </c>
       <c r="T7">
-        <v>0.1630294953648665</v>
+        <v>0.007178748463367146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H8">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J8">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.5024997985056</v>
+        <v>8.811908000000001</v>
       </c>
       <c r="N8">
-        <v>8.5024997985056</v>
+        <v>26.435724</v>
       </c>
       <c r="O8">
-        <v>0.2571849008196353</v>
+        <v>0.2566534056168363</v>
       </c>
       <c r="P8">
-        <v>0.2571849008196353</v>
+        <v>0.2657074162934502</v>
       </c>
       <c r="Q8">
-        <v>25.40242360541701</v>
+        <v>1.321844946053333</v>
       </c>
       <c r="R8">
-        <v>25.40242360541701</v>
+        <v>11.89660451448</v>
       </c>
       <c r="S8">
-        <v>0.1134834369777979</v>
+        <v>0.004742344239634588</v>
       </c>
       <c r="T8">
-        <v>0.1134834369777979</v>
+        <v>0.005121416589327162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H9">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J9">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40503531664433</v>
+        <v>4.158013666666666</v>
       </c>
       <c r="N9">
-        <v>3.40503531664433</v>
+        <v>12.474041</v>
       </c>
       <c r="O9">
-        <v>0.1029960236344192</v>
+        <v>0.1211052553148931</v>
       </c>
       <c r="P9">
-        <v>0.1029960236344192</v>
+        <v>0.1253775082857033</v>
       </c>
       <c r="Q9">
-        <v>10.17302576355333</v>
+        <v>0.623729770091111</v>
       </c>
       <c r="R9">
-        <v>10.17302576355333</v>
+        <v>5.613567930819999</v>
       </c>
       <c r="S9">
-        <v>0.04544723550966732</v>
+        <v>0.002237736953272612</v>
       </c>
       <c r="T9">
-        <v>0.04544723550966732</v>
+        <v>0.002416607183270153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H10">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J10">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.43700190049592</v>
+        <v>5.502415666666667</v>
       </c>
       <c r="N10">
-        <v>5.43700190049592</v>
+        <v>16.507247</v>
       </c>
       <c r="O10">
-        <v>0.164459256415505</v>
+        <v>0.1602619682331494</v>
       </c>
       <c r="P10">
-        <v>0.164459256415505</v>
+        <v>0.1659155599630185</v>
       </c>
       <c r="Q10">
-        <v>16.2438140185701</v>
+        <v>0.825399032771111</v>
       </c>
       <c r="R10">
-        <v>16.2438140185701</v>
+        <v>7.428591294939999</v>
       </c>
       <c r="S10">
-        <v>0.0725680302434752</v>
+        <v>0.002961259836222959</v>
       </c>
       <c r="T10">
-        <v>0.0725680302434752</v>
+        <v>0.003197963809499638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H11">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J11">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.50070407590716</v>
+        <v>3.509793</v>
       </c>
       <c r="N11">
-        <v>3.50070407590716</v>
+        <v>7.019586</v>
       </c>
       <c r="O11">
-        <v>0.1058898267447554</v>
+        <v>0.1022253439845415</v>
       </c>
       <c r="P11">
-        <v>0.1058898267447554</v>
+        <v>0.0705543778377197</v>
       </c>
       <c r="Q11">
-        <v>10.45884974546348</v>
+        <v>0.5264923486199999</v>
       </c>
       <c r="R11">
-        <v>10.45884974546348</v>
+        <v>3.15895409172</v>
       </c>
       <c r="S11">
-        <v>0.04672413287748093</v>
+        <v>0.001888881115855931</v>
       </c>
       <c r="T11">
-        <v>0.04672413287748093</v>
+        <v>0.001359910709863997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H12">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I12">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J12">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.2146305082515</v>
+        <v>12.35175266666666</v>
       </c>
       <c r="N12">
-        <v>12.2146305082515</v>
+        <v>37.05525799999999</v>
       </c>
       <c r="O12">
-        <v>0.3694699923856851</v>
+        <v>0.3597540268505798</v>
       </c>
       <c r="P12">
-        <v>0.3694699923856851</v>
+        <v>0.3724451376201082</v>
       </c>
       <c r="Q12">
-        <v>8.816931758818178</v>
+        <v>39.627930452424</v>
       </c>
       <c r="R12">
-        <v>8.816931758818178</v>
+        <v>356.651374071816</v>
       </c>
       <c r="S12">
-        <v>0.03938898646568579</v>
+        <v>0.1421719606908499</v>
       </c>
       <c r="T12">
-        <v>0.03938898646568579</v>
+        <v>0.1535362683994849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H13">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I13">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J13">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.5024997985056</v>
+        <v>8.811908000000001</v>
       </c>
       <c r="N13">
-        <v>8.5024997985056</v>
+        <v>26.435724</v>
       </c>
       <c r="O13">
-        <v>0.2571849008196353</v>
+        <v>0.2566534056168363</v>
       </c>
       <c r="P13">
-        <v>0.2571849008196353</v>
+        <v>0.2657074162934502</v>
       </c>
       <c r="Q13">
-        <v>6.137390766928768</v>
+        <v>28.271103445872</v>
       </c>
       <c r="R13">
-        <v>6.137390766928768</v>
+        <v>254.439931012848</v>
       </c>
       <c r="S13">
-        <v>0.02741833649913445</v>
+        <v>0.1014274064253488</v>
       </c>
       <c r="T13">
-        <v>0.02741833649913445</v>
+        <v>0.1095348577899176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H14">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I14">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J14">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.40503531664433</v>
+        <v>4.158013666666666</v>
       </c>
       <c r="N14">
-        <v>3.40503531664433</v>
+        <v>12.474041</v>
       </c>
       <c r="O14">
-        <v>0.1029960236344192</v>
+        <v>0.1211052553148931</v>
       </c>
       <c r="P14">
-        <v>0.1029960236344192</v>
+        <v>0.1253775082857033</v>
       </c>
       <c r="Q14">
-        <v>2.457869192435891</v>
+        <v>13.340088718548</v>
       </c>
       <c r="R14">
-        <v>2.457869192435891</v>
+        <v>120.060798466932</v>
       </c>
       <c r="S14">
-        <v>0.0109803476995789</v>
+        <v>0.04785984398511136</v>
       </c>
       <c r="T14">
-        <v>0.0109803476995789</v>
+        <v>0.05168545060466668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H15">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I15">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J15">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.43700190049592</v>
+        <v>5.502415666666667</v>
       </c>
       <c r="N15">
-        <v>5.43700190049592</v>
+        <v>16.507247</v>
       </c>
       <c r="O15">
-        <v>0.164459256415505</v>
+        <v>0.1602619682331494</v>
       </c>
       <c r="P15">
-        <v>0.164459256415505</v>
+        <v>0.1659155599630185</v>
       </c>
       <c r="Q15">
-        <v>3.924611120807408</v>
+        <v>17.653312144716</v>
       </c>
       <c r="R15">
-        <v>3.924611120807408</v>
+        <v>158.879809302444</v>
       </c>
       <c r="S15">
-        <v>0.01753290810785221</v>
+        <v>0.06333426882625268</v>
       </c>
       <c r="T15">
-        <v>0.01753290810785221</v>
+        <v>0.06839680095949117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.208284</v>
+      </c>
+      <c r="H16">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J16">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.509793</v>
+      </c>
+      <c r="N16">
+        <v>7.019586</v>
+      </c>
+      <c r="O16">
+        <v>0.1022253439845415</v>
+      </c>
+      <c r="P16">
+        <v>0.0705543778377197</v>
+      </c>
+      <c r="Q16">
+        <v>11.260412725212</v>
+      </c>
+      <c r="R16">
+        <v>67.56247635127201</v>
+      </c>
+      <c r="S16">
+        <v>0.04039865158372559</v>
+      </c>
+      <c r="T16">
+        <v>0.02908523913527379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.048665</v>
+      </c>
+      <c r="I17">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J17">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.35175266666666</v>
+      </c>
+      <c r="N17">
+        <v>37.05525799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3597540268505798</v>
+      </c>
+      <c r="P17">
+        <v>0.3724451376201082</v>
+      </c>
+      <c r="Q17">
+        <v>37.25562401450777</v>
+      </c>
+      <c r="R17">
+        <v>335.3006161305699</v>
+      </c>
+      <c r="S17">
+        <v>0.1336609066492314</v>
+      </c>
+      <c r="T17">
+        <v>0.1443448957030223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H18">
+        <v>9.048665</v>
+      </c>
+      <c r="I18">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J18">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.811908000000001</v>
+      </c>
+      <c r="N18">
+        <v>26.435724</v>
+      </c>
+      <c r="O18">
+        <v>0.2566534056168363</v>
+      </c>
+      <c r="P18">
+        <v>0.2657074162934502</v>
+      </c>
+      <c r="Q18">
+        <v>26.57866783427334</v>
+      </c>
+      <c r="R18">
+        <v>239.20801050846</v>
+      </c>
+      <c r="S18">
+        <v>0.095355504953409</v>
+      </c>
+      <c r="T18">
+        <v>0.1029776077557977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H19">
+        <v>9.048665</v>
+      </c>
+      <c r="I19">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J19">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.158013666666666</v>
+      </c>
+      <c r="N19">
+        <v>12.474041</v>
+      </c>
+      <c r="O19">
+        <v>0.1211052553148931</v>
+      </c>
+      <c r="P19">
+        <v>0.1253775082857033</v>
+      </c>
+      <c r="Q19">
+        <v>12.54149091169611</v>
+      </c>
+      <c r="R19">
+        <v>112.873418205265</v>
+      </c>
+      <c r="S19">
+        <v>0.04499473811893809</v>
+      </c>
+      <c r="T19">
+        <v>0.04859132669215861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H20">
+        <v>9.048665</v>
+      </c>
+      <c r="I20">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J20">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.502415666666667</v>
+      </c>
+      <c r="N20">
+        <v>16.507247</v>
+      </c>
+      <c r="O20">
+        <v>0.1602619682331494</v>
+      </c>
+      <c r="P20">
+        <v>0.1659155599630185</v>
+      </c>
+      <c r="Q20">
+        <v>16.59650535280611</v>
+      </c>
+      <c r="R20">
+        <v>149.368548175255</v>
+      </c>
+      <c r="S20">
+        <v>0.05954279417789525</v>
+      </c>
+      <c r="T20">
+        <v>0.06430226033128759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H21">
+        <v>9.048665</v>
+      </c>
+      <c r="I21">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J21">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.509793</v>
+      </c>
+      <c r="N21">
+        <v>7.019586</v>
+      </c>
+      <c r="O21">
+        <v>0.1022253439845415</v>
+      </c>
+      <c r="P21">
+        <v>0.0705543778377197</v>
+      </c>
+      <c r="Q21">
+        <v>10.586313692115</v>
+      </c>
+      <c r="R21">
+        <v>63.51788215269</v>
+      </c>
+      <c r="S21">
+        <v>0.03798020630684526</v>
+      </c>
+      <c r="T21">
+        <v>0.02734406569368362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0070985</v>
+      </c>
+      <c r="H22">
+        <v>2.014197</v>
+      </c>
+      <c r="I22">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J22">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.35175266666666</v>
+      </c>
+      <c r="N22">
+        <v>37.05525799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.3597540268505798</v>
+      </c>
+      <c r="P22">
+        <v>0.3724451376201082</v>
+      </c>
+      <c r="Q22">
+        <v>12.439431582971</v>
+      </c>
+      <c r="R22">
+        <v>74.63658949782599</v>
+      </c>
+      <c r="S22">
+        <v>0.04462858286667074</v>
+      </c>
+      <c r="T22">
+        <v>0.03213060223694218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0070985</v>
+      </c>
+      <c r="H23">
+        <v>2.014197</v>
+      </c>
+      <c r="I23">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J23">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.811908000000001</v>
+      </c>
+      <c r="N23">
+        <v>26.435724</v>
+      </c>
+      <c r="O23">
+        <v>0.2566534056168363</v>
+      </c>
+      <c r="P23">
+        <v>0.2657074162934502</v>
+      </c>
+      <c r="Q23">
+        <v>8.874459328938002</v>
+      </c>
+      <c r="R23">
+        <v>53.24675597362801</v>
+      </c>
+      <c r="S23">
+        <v>0.03183863675094197</v>
+      </c>
+      <c r="T23">
+        <v>0.0229224077373739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="H16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="I16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="J16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.50070407590716</v>
-      </c>
-      <c r="N16">
-        <v>3.50070407590716</v>
-      </c>
-      <c r="O16">
-        <v>0.1058898267447554</v>
-      </c>
-      <c r="P16">
-        <v>0.1058898267447554</v>
-      </c>
-      <c r="Q16">
-        <v>2.526926125537662</v>
-      </c>
-      <c r="R16">
-        <v>2.526926125537662</v>
-      </c>
-      <c r="S16">
-        <v>0.01128885440890973</v>
-      </c>
-      <c r="T16">
-        <v>0.01128885440890973</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0070985</v>
+      </c>
+      <c r="H24">
+        <v>2.014197</v>
+      </c>
+      <c r="I24">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J24">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.158013666666666</v>
+      </c>
+      <c r="N24">
+        <v>12.474041</v>
+      </c>
+      <c r="O24">
+        <v>0.1211052553148931</v>
+      </c>
+      <c r="P24">
+        <v>0.1253775082857033</v>
+      </c>
+      <c r="Q24">
+        <v>4.1875293266795</v>
+      </c>
+      <c r="R24">
+        <v>25.125175960077</v>
+      </c>
+      <c r="S24">
+        <v>0.01502347581686648</v>
+      </c>
+      <c r="T24">
+        <v>0.01081623691996176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0070985</v>
+      </c>
+      <c r="H25">
+        <v>2.014197</v>
+      </c>
+      <c r="I25">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J25">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.502415666666667</v>
+      </c>
+      <c r="N25">
+        <v>16.507247</v>
+      </c>
+      <c r="O25">
+        <v>0.1602619682331494</v>
+      </c>
+      <c r="P25">
+        <v>0.1659155599630185</v>
+      </c>
+      <c r="Q25">
+        <v>5.541474564276501</v>
+      </c>
+      <c r="R25">
+        <v>33.248847385659</v>
+      </c>
+      <c r="S25">
+        <v>0.01988098532845466</v>
+      </c>
+      <c r="T25">
+        <v>0.01431342853918214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0070985</v>
+      </c>
+      <c r="H26">
+        <v>2.014197</v>
+      </c>
+      <c r="I26">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J26">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.509793</v>
+      </c>
+      <c r="N26">
+        <v>7.019586</v>
+      </c>
+      <c r="O26">
+        <v>0.1022253439845415</v>
+      </c>
+      <c r="P26">
+        <v>0.0705543778377197</v>
+      </c>
+      <c r="Q26">
+        <v>3.534707265610501</v>
+      </c>
+      <c r="R26">
+        <v>14.138829062442</v>
+      </c>
+      <c r="S26">
+        <v>0.0126813653068097</v>
+      </c>
+      <c r="T26">
+        <v>0.006086680752135313</v>
       </c>
     </row>
   </sheetData>
